--- a/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289924AC-CF68-4FA5-AA72-7BF2921E482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D33EDA1-AD75-4027-ADA6-08AC207A648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35892F1D-46F2-4962-A520-4E2B488A6248}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBEEFCD0-3624-4FB6-854C-3A4DA341D935}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -311,217 +311,211 @@
     <t>73,12%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>26,88%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>63,33%</t>
   </si>
   <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>58,56%</t>
   </si>
   <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>63,28%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>41,44%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>36,72%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>55,79%</t>
   </si>
   <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
   </si>
   <si>
     <t>65,41%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
   </si>
   <si>
     <t>54,3%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
   </si>
   <si>
     <t>59,82%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>34,59%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>45,7%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
@@ -530,205 +524,193 @@
     <t>73,74%</t>
   </si>
   <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
   </si>
   <si>
     <t>47,13%</t>
   </si>
   <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
   </si>
   <si>
     <t>52,87%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>44,14%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>59,2%</t>
   </si>
   <si>
     <t>60,81%</t>
   </si>
   <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>52,25%</t>
   </si>
   <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>39,19%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>47,75%</t>
   </si>
   <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
   </si>
   <si>
     <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
@@ -737,25 +719,25 @@
     <t>75,49%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>72,57%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>76,98%</t>
@@ -764,19 +746,19 @@
     <t>24,51%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>25,05%</t>
@@ -785,169 +767,163 @@
     <t>23,02%</t>
   </si>
   <si>
-    <t>27,43%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>61,98%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
   </si>
   <si>
     <t>50,75%</t>
   </si>
   <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
   </si>
   <si>
     <t>56,29%</t>
   </si>
   <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
   </si>
   <si>
     <t>38,02%</t>
   </si>
   <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>49,25%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>43,71%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
   </si>
   <si>
     <t>46,35%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>53,65%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>53,02%</t>
   </si>
   <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>57,79%</t>
   </si>
   <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>60,29%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>42,21%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
+    <t>39,71%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55843963-5900-4770-92AF-AB2518B45E70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11AA32F-C097-400C-94A9-B20C3F5970E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C65CD6-34F8-4E84-B611-AF6FB8412B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79061604-4176-4C5A-974D-E5CAC5F5BB50}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2261,7 +2237,7 @@
         <v>1508</v>
       </c>
       <c r="N4" s="7">
-        <v>1617236</v>
+        <v>1617237</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2363,7 +2339,7 @@
         <v>2030</v>
       </c>
       <c r="N6" s="7">
-        <v>2178217</v>
+        <v>2178218</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2547,10 +2523,10 @@
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -2559,13 +2535,13 @@
         <v>133202</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>375</v>
@@ -2574,13 +2550,13 @@
         <v>409554</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2571,13 @@
         <v>195583</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -2610,13 +2586,13 @@
         <v>321346</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
@@ -2625,13 +2601,13 @@
         <v>516928</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2675,13 @@
         <v>2194022</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1714</v>
@@ -2714,13 +2690,13 @@
         <v>1848239</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>3757</v>
@@ -2729,13 +2705,13 @@
         <v>4042261</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2726,13 @@
         <v>1160351</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1438</v>
@@ -2765,13 +2741,13 @@
         <v>1555224</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2538</v>
@@ -2780,13 +2756,13 @@
         <v>2715575</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE8904F-7B26-4CCF-8BC0-C99AB78C5E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C152C26C-94F6-4071-A757-BEB3BA4E333E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2961,13 @@
         <v>524453</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>583</v>
@@ -3000,13 +2976,13 @@
         <v>647607</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1115</v>
@@ -3015,13 +2991,13 @@
         <v>1172060</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3012,13 @@
         <v>186767</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>216</v>
@@ -3051,13 +3027,13 @@
         <v>236038</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>401</v>
@@ -3066,13 +3042,13 @@
         <v>422804</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3116,13 @@
         <v>1176088</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>859</v>
@@ -3155,13 +3131,13 @@
         <v>906082</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1961</v>
@@ -3173,10 +3149,10 @@
         <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3167,13 @@
         <v>836981</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>988</v>
@@ -3206,13 +3182,13 @@
         <v>1016428</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1780</v>
@@ -3224,10 +3200,10 @@
         <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3271,13 @@
         <v>280287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -3310,13 +3286,13 @@
         <v>186119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>431</v>
@@ -3325,13 +3301,13 @@
         <v>466406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3322,13 @@
         <v>252608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -3361,13 +3337,13 @@
         <v>337613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>560</v>
@@ -3376,13 +3352,13 @@
         <v>590221</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3426,13 @@
         <v>1980828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>1617</v>
@@ -3465,13 +3441,13 @@
         <v>1739809</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>3507</v>
@@ -3480,13 +3456,13 @@
         <v>3720636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3477,13 @@
         <v>1276356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>1531</v>
@@ -3516,13 +3492,13 @@
         <v>1590078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>2741</v>
@@ -3531,13 +3507,13 @@
         <v>2866434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB0EC3F-4E20-40B0-B4A8-D9B63A81A090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BF1867-A0FF-4BDB-B1B0-688B0F100A00}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3712,13 @@
         <v>389230</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>974</v>
@@ -3751,13 +3727,13 @@
         <v>569740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>1471</v>
@@ -3766,13 +3742,13 @@
         <v>958970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3763,13 @@
         <v>126391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>315</v>
@@ -3802,13 +3778,13 @@
         <v>194099</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>475</v>
@@ -3817,13 +3793,13 @@
         <v>320490</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3867,13 @@
         <v>1322965</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>1510</v>
@@ -3906,13 +3882,13 @@
         <v>1113100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>2787</v>
@@ -3921,13 +3897,13 @@
         <v>2436065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3918,13 @@
         <v>811399</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>1349</v>
@@ -3957,13 +3933,13 @@
         <v>1080209</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>2033</v>
@@ -3972,13 +3948,13 @@
         <v>1891608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4022,13 @@
         <v>375504</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>382</v>
@@ -4061,13 +4037,13 @@
         <v>252082</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>773</v>
@@ -4076,13 +4052,13 @@
         <v>627586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4073,13 @@
         <v>285882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -4112,13 +4088,13 @@
         <v>440449</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>867</v>
@@ -4127,13 +4103,13 @@
         <v>726331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,28 +4177,28 @@
         <v>2087699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>2866</v>
       </c>
       <c r="I13" s="7">
-        <v>1934922</v>
+        <v>1934923</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>5031</v>
@@ -4231,13 +4207,13 @@
         <v>4022621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4228,13 @@
         <v>1223673</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>2255</v>
@@ -4267,13 +4243,13 @@
         <v>1714756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>3375</v>
@@ -4282,13 +4258,13 @@
         <v>2938429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,7 +4291,7 @@
         <v>5121</v>
       </c>
       <c r="I15" s="7">
-        <v>3649678</v>
+        <v>3649679</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D33EDA1-AD75-4027-ADA6-08AC207A648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB8B75CB-200E-4204-AAB1-1863E47767C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBEEFCD0-3624-4FB6-854C-3A4DA341D935}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78FABB10-F442-49E9-BE1E-7BAC2AE790AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>68,74%</t>
   </si>
   <si>
-    <t>65,73%</t>
+    <t>65,77%</t>
   </si>
   <si>
     <t>71,58%</t>
@@ -86,19 +86,19 @@
     <t>69,02%</t>
   </si>
   <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>28,42%</t>
   </si>
   <si>
-    <t>34,27%</t>
+    <t>34,23%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,790 +140,820 @@
     <t>55,34%</t>
   </si>
   <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
     <t>52,91%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
   </si>
   <si>
     <t>47,09%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
   </si>
   <si>
     <t>56,17%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>43,83%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11AA32F-C097-400C-94A9-B20C3F5970E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCB56C8-F3D9-4148-9AC3-41B982ED0403}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,7 +1722,7 @@
         <v>1725</v>
       </c>
       <c r="N8" s="7">
-        <v>1769796</v>
+        <v>1769795</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1743,7 +1773,7 @@
         <v>3184</v>
       </c>
       <c r="N9" s="7">
-        <v>3259879</v>
+        <v>3259878</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1951,7 +1981,7 @@
         <v>3444</v>
       </c>
       <c r="N13" s="7">
-        <v>3499588</v>
+        <v>3499587</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1996,7 +2026,7 @@
         <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>2993</v>
@@ -2005,13 +2035,13 @@
         <v>3077470</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2083,7 @@
         <v>6437</v>
       </c>
       <c r="N15" s="7">
-        <v>6577058</v>
+        <v>6577057</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2067,7 +2097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79061604-4176-4C5A-974D-E5CAC5F5BB50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B6178-85EB-4AB6-8330-409BCD694030}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2210,13 +2240,13 @@
         <v>688435</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>871</v>
@@ -2225,13 +2255,13 @@
         <v>928801</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1508</v>
@@ -2240,13 +2270,13 @@
         <v>1617237</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2291,13 @@
         <v>253125</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>281</v>
@@ -2276,13 +2306,13 @@
         <v>307856</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>522</v>
@@ -2291,13 +2321,13 @@
         <v>560981</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2395,13 @@
         <v>1229235</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>721</v>
@@ -2380,13 +2410,13 @@
         <v>786235</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1874</v>
@@ -2395,13 +2425,13 @@
         <v>2015470</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2446,13 @@
         <v>711644</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>871</v>
@@ -2431,13 +2461,13 @@
         <v>926023</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1554</v>
@@ -2446,13 +2476,13 @@
         <v>1637666</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2550,13 @@
         <v>276351</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -2535,13 +2565,13 @@
         <v>133202</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>375</v>
@@ -2550,13 +2580,13 @@
         <v>409554</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2601,13 @@
         <v>195583</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -2818,7 +2848,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C152C26C-94F6-4071-A757-BEB3BA4E333E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183DD7D0-0B64-4455-9D43-F1BBCDD33048}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3146,13 +3176,13 @@
         <v>2082170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3197,13 @@
         <v>836981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>988</v>
@@ -3182,13 +3212,13 @@
         <v>1016428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>1780</v>
@@ -3197,13 +3227,13 @@
         <v>1853409</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3301,13 @@
         <v>280287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -3286,13 +3316,13 @@
         <v>186119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>431</v>
@@ -3301,13 +3331,13 @@
         <v>466406</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3352,13 @@
         <v>252608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -3337,13 +3367,13 @@
         <v>337613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>560</v>
@@ -3352,13 +3382,13 @@
         <v>590221</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3456,13 @@
         <v>1980828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1617</v>
@@ -3441,13 +3471,13 @@
         <v>1739809</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>3507</v>
@@ -3456,13 +3486,13 @@
         <v>3720636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3507,13 @@
         <v>1276356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>1531</v>
@@ -3492,13 +3522,13 @@
         <v>1590078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>2741</v>
@@ -3507,13 +3537,13 @@
         <v>2866434</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3599,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BF1867-A0FF-4BDB-B1B0-688B0F100A00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCCA28F-361D-478C-BEA2-32DD24F926DB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3742,13 @@
         <v>389230</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>974</v>
@@ -3727,13 +3757,13 @@
         <v>569740</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1471</v>
@@ -3742,13 +3772,13 @@
         <v>958970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3793,13 @@
         <v>126391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>315</v>
@@ -3778,13 +3808,13 @@
         <v>194099</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>475</v>
@@ -3793,13 +3823,13 @@
         <v>320490</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3897,13 @@
         <v>1322965</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1510</v>
@@ -3882,13 +3912,13 @@
         <v>1113100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>2787</v>
@@ -3897,13 +3927,13 @@
         <v>2436065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3948,13 @@
         <v>811399</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1349</v>
@@ -3933,13 +3963,13 @@
         <v>1080209</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>2033</v>
@@ -3948,13 +3978,13 @@
         <v>1891608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4052,13 @@
         <v>375504</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>382</v>
@@ -4037,13 +4067,13 @@
         <v>252082</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>773</v>
@@ -4052,13 +4082,13 @@
         <v>627586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4103,13 @@
         <v>285882</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -4088,13 +4118,13 @@
         <v>440449</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>867</v>
@@ -4103,13 +4133,13 @@
         <v>726331</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4207,13 @@
         <v>2087699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2866</v>
@@ -4192,13 +4222,13 @@
         <v>1934923</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>5031</v>
@@ -4207,13 +4237,13 @@
         <v>4022621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4258,13 @@
         <v>1223673</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>2255</v>
@@ -4243,13 +4273,13 @@
         <v>1714756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>3375</v>
@@ -4258,13 +4288,13 @@
         <v>2938429</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,7 +4350,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB8B75CB-200E-4204-AAB1-1863E47767C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFC51A6-9A1B-447C-B448-947A5D928B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78FABB10-F442-49E9-BE1E-7BAC2AE790AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4388759B-C82B-4AF9-84CE-4AD5371B8CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>68,74%</t>
   </si>
   <si>
-    <t>65,77%</t>
+    <t>65,73%</t>
   </si>
   <si>
     <t>71,58%</t>
@@ -86,19 +86,19 @@
     <t>69,02%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>28,42%</t>
   </si>
   <si>
-    <t>34,23%</t>
+    <t>34,27%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>55,34%</t>
   </si>
   <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
   </si>
   <si>
     <t>35,42%</t>
@@ -152,370 +152,376 @@
     <t>32,97%</t>
   </si>
   <si>
-    <t>37,59%</t>
+    <t>37,68%</t>
   </si>
   <si>
     <t>45,71%</t>
   </si>
   <si>
-    <t>43,99%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>47,5%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
   </si>
   <si>
     <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
@@ -524,436 +530,424 @@
     <t>73,74%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
     <t>56,2%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>53,02%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>57,79%</t>
   </si>
   <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
   </si>
   <si>
     <t>42,21%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCB56C8-F3D9-4148-9AC3-41B982ED0403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93249956-DE17-42C6-9574-6E994112BF50}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1722,7 +1716,7 @@
         <v>1725</v>
       </c>
       <c r="N8" s="7">
-        <v>1769795</v>
+        <v>1769796</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1773,7 +1767,7 @@
         <v>3184</v>
       </c>
       <c r="N9" s="7">
-        <v>3259878</v>
+        <v>3259879</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1981,7 +1975,7 @@
         <v>3444</v>
       </c>
       <c r="N13" s="7">
-        <v>3499587</v>
+        <v>3499588</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2026,7 +2020,7 @@
         <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2993</v>
@@ -2035,13 +2029,13 @@
         <v>3077470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,7 +2077,7 @@
         <v>6437</v>
       </c>
       <c r="N15" s="7">
-        <v>6577057</v>
+        <v>6577058</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2097,7 +2091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284B6178-85EB-4AB6-8330-409BCD694030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692F9C89-2AD0-4BC5-88D0-EC5144442E89}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2240,13 +2234,13 @@
         <v>688435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>871</v>
@@ -2255,28 +2249,28 @@
         <v>928801</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1508</v>
       </c>
       <c r="N4" s="7">
-        <v>1617237</v>
+        <v>1617236</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2285,13 @@
         <v>253125</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>281</v>
@@ -2306,13 +2300,13 @@
         <v>307856</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>522</v>
@@ -2321,13 +2315,13 @@
         <v>560981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2363,7 @@
         <v>2030</v>
       </c>
       <c r="N6" s="7">
-        <v>2178218</v>
+        <v>2178217</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2395,13 +2389,13 @@
         <v>1229235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>721</v>
@@ -2410,13 +2404,13 @@
         <v>786235</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1874</v>
@@ -2425,13 +2419,13 @@
         <v>2015470</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2440,13 @@
         <v>711644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>871</v>
@@ -2461,13 +2455,13 @@
         <v>926023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1554</v>
@@ -2476,13 +2470,13 @@
         <v>1637666</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2544,13 @@
         <v>276351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -2565,13 +2559,13 @@
         <v>133202</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>375</v>
@@ -2580,13 +2574,13 @@
         <v>409554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2595,13 @@
         <v>195583</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -2616,13 +2610,13 @@
         <v>321346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
@@ -2631,13 +2625,13 @@
         <v>516928</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2699,13 @@
         <v>2194022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1714</v>
@@ -2720,13 +2714,13 @@
         <v>1848239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>3757</v>
@@ -2735,13 +2729,13 @@
         <v>4042261</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2750,13 @@
         <v>1160351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1438</v>
@@ -2771,13 +2765,13 @@
         <v>1555224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2538</v>
@@ -2786,13 +2780,13 @@
         <v>2715575</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2842,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183DD7D0-0B64-4455-9D43-F1BBCDD33048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E63C4C-0654-4CBD-965A-03CEB91BFF2D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2985,13 @@
         <v>524453</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>583</v>
@@ -3006,13 +3000,13 @@
         <v>647607</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1115</v>
@@ -3021,13 +3015,13 @@
         <v>1172060</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3036,13 @@
         <v>186767</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>216</v>
@@ -3057,13 +3051,13 @@
         <v>236038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>401</v>
@@ -3072,13 +3066,13 @@
         <v>422804</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3140,13 @@
         <v>1176088</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>859</v>
@@ -3161,13 +3155,13 @@
         <v>906082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1961</v>
@@ -3176,13 +3170,13 @@
         <v>2082170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3191,13 @@
         <v>836981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>988</v>
@@ -3212,13 +3206,13 @@
         <v>1016428</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1780</v>
@@ -3227,7 +3221,7 @@
         <v>1853409</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>194</v>
@@ -3489,10 +3483,10 @@
         <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3501,13 @@
         <v>1276356</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>1531</v>
@@ -3522,13 +3516,13 @@
         <v>1590078</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>2741</v>
@@ -3537,13 +3531,13 @@
         <v>2866434</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCCA28F-361D-478C-BEA2-32DD24F926DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7241FDA-CEA3-4581-9111-278EEA3382CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3736,13 @@
         <v>389230</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>974</v>
@@ -3757,13 +3751,13 @@
         <v>569740</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1471</v>
@@ -3772,13 +3766,13 @@
         <v>958970</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3787,13 @@
         <v>126391</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>315</v>
@@ -3808,13 +3802,13 @@
         <v>194099</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>475</v>
@@ -3823,13 +3817,13 @@
         <v>320490</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3891,13 @@
         <v>1322965</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1510</v>
@@ -3912,13 +3906,13 @@
         <v>1113100</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>2787</v>
@@ -3927,13 +3921,13 @@
         <v>2436065</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3942,13 @@
         <v>811399</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1349</v>
@@ -3963,13 +3957,13 @@
         <v>1080209</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>2033</v>
@@ -3978,13 +3972,13 @@
         <v>1891608</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4046,13 @@
         <v>375504</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>382</v>
@@ -4067,13 +4061,13 @@
         <v>252082</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>773</v>
@@ -4082,13 +4076,13 @@
         <v>627586</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4097,13 @@
         <v>285882</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -4118,13 +4112,13 @@
         <v>440449</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>867</v>
@@ -4133,13 +4127,13 @@
         <v>726331</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,28 +4201,28 @@
         <v>2087699</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2866</v>
       </c>
       <c r="I13" s="7">
-        <v>1934923</v>
+        <v>1934922</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>5031</v>
@@ -4237,13 +4231,13 @@
         <v>4022621</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4252,13 @@
         <v>1223673</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>2255</v>
@@ -4273,13 +4267,13 @@
         <v>1714756</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>3375</v>
@@ -4288,13 +4282,13 @@
         <v>2938429</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4315,7 @@
         <v>5121</v>
       </c>
       <c r="I15" s="7">
-        <v>3649679</v>
+        <v>3649678</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4350,7 +4344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFC51A6-9A1B-447C-B448-947A5D928B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3254146-7753-43B5-A8A3-E4E6FB6E0285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4388759B-C82B-4AF9-84CE-4AD5371B8CBC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F111D4BD-91C6-43BA-B821-4F5F91BB0BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -734,220 +734,208 @@
     <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93249956-DE17-42C6-9574-6E994112BF50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA4217A-B52C-4C1A-9729-65DC2DFC7FD8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1510,7 +1498,7 @@
         <v>1577</v>
       </c>
       <c r="N4" s="7">
-        <v>1583001</v>
+        <v>1583000</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1612,7 +1600,7 @@
         <v>2281</v>
       </c>
       <c r="N6" s="7">
-        <v>2297626</v>
+        <v>2297625</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1975,7 +1963,7 @@
         <v>3444</v>
       </c>
       <c r="N13" s="7">
-        <v>3499588</v>
+        <v>3499587</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2077,7 +2065,7 @@
         <v>6437</v>
       </c>
       <c r="N15" s="7">
-        <v>6577058</v>
+        <v>6577057</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692F9C89-2AD0-4BC5-88D0-EC5144442E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CED8AF-79B1-4DF5-B2D0-B8D3B37D9C5D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2231,7 +2219,7 @@
         <v>637</v>
       </c>
       <c r="D4" s="7">
-        <v>688435</v>
+        <v>688436</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2333,7 +2321,7 @@
         <v>878</v>
       </c>
       <c r="D6" s="7">
-        <v>941560</v>
+        <v>941561</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2726,7 +2714,7 @@
         <v>3757</v>
       </c>
       <c r="N13" s="7">
-        <v>4042261</v>
+        <v>4042260</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>149</v>
@@ -2828,7 +2816,7 @@
         <v>6295</v>
       </c>
       <c r="N15" s="7">
-        <v>6757836</v>
+        <v>6757835</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E63C4C-0654-4CBD-965A-03CEB91BFF2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8C0809-3516-450F-9178-3356148D62E8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3033,7 +3021,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>186767</v>
+        <v>186766</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>171</v>
@@ -3084,7 +3072,7 @@
         <v>717</v>
       </c>
       <c r="D6" s="7">
-        <v>711220</v>
+        <v>711219</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3447,7 +3435,7 @@
         <v>1890</v>
       </c>
       <c r="D13" s="7">
-        <v>1980828</v>
+        <v>1980827</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>214</v>
@@ -3549,7 +3537,7 @@
         <v>3100</v>
       </c>
       <c r="D15" s="7">
-        <v>3257184</v>
+        <v>3257183</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7241FDA-CEA3-4581-9111-278EEA3382CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61667225-3FCD-4113-9C4D-A401BB092AD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3721,7 @@
         <v>497</v>
       </c>
       <c r="D4" s="7">
-        <v>389230</v>
+        <v>371315</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3748,7 +3736,7 @@
         <v>974</v>
       </c>
       <c r="I4" s="7">
-        <v>569740</v>
+        <v>512297</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3763,7 +3751,7 @@
         <v>1471</v>
       </c>
       <c r="N4" s="7">
-        <v>958970</v>
+        <v>883613</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3784,7 +3772,7 @@
         <v>160</v>
       </c>
       <c r="D5" s="7">
-        <v>126391</v>
+        <v>119313</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3799,7 +3787,7 @@
         <v>315</v>
       </c>
       <c r="I5" s="7">
-        <v>194099</v>
+        <v>176708</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3814,7 +3802,7 @@
         <v>475</v>
       </c>
       <c r="N5" s="7">
-        <v>320490</v>
+        <v>296021</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3835,7 +3823,7 @@
         <v>657</v>
       </c>
       <c r="D6" s="7">
-        <v>515621</v>
+        <v>490628</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3838,7 @@
         <v>1289</v>
       </c>
       <c r="I6" s="7">
-        <v>763839</v>
+        <v>689005</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3853,7 @@
         <v>1946</v>
       </c>
       <c r="N6" s="7">
-        <v>1279460</v>
+        <v>1179634</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,7 +3876,7 @@
         <v>1277</v>
       </c>
       <c r="D7" s="7">
-        <v>1322965</v>
+        <v>1471279</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3903,7 +3891,7 @@
         <v>1510</v>
       </c>
       <c r="I7" s="7">
-        <v>1113100</v>
+        <v>1181659</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>252</v>
@@ -3918,7 +3906,7 @@
         <v>2787</v>
       </c>
       <c r="N7" s="7">
-        <v>2436065</v>
+        <v>2652939</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>255</v>
@@ -3939,7 +3927,7 @@
         <v>684</v>
       </c>
       <c r="D8" s="7">
-        <v>811399</v>
+        <v>793113</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3954,7 +3942,7 @@
         <v>1349</v>
       </c>
       <c r="I8" s="7">
-        <v>1080209</v>
+        <v>981831</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3969,7 +3957,7 @@
         <v>2033</v>
       </c>
       <c r="N8" s="7">
-        <v>1891608</v>
+        <v>1774944</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
@@ -3990,7 +3978,7 @@
         <v>1961</v>
       </c>
       <c r="D9" s="7">
-        <v>2134364</v>
+        <v>2264392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +3993,7 @@
         <v>2859</v>
       </c>
       <c r="I9" s="7">
-        <v>2193309</v>
+        <v>2163490</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4008,7 @@
         <v>4820</v>
       </c>
       <c r="N9" s="7">
-        <v>4327673</v>
+        <v>4427883</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,7 +4031,7 @@
         <v>391</v>
       </c>
       <c r="D10" s="7">
-        <v>375504</v>
+        <v>360475</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4058,7 +4046,7 @@
         <v>382</v>
       </c>
       <c r="I10" s="7">
-        <v>252082</v>
+        <v>232958</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4067,22 +4055,22 @@
         <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>773</v>
       </c>
       <c r="N10" s="7">
-        <v>627586</v>
+        <v>593433</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,46 +4082,46 @@
         <v>276</v>
       </c>
       <c r="D11" s="7">
-        <v>285882</v>
+        <v>275391</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
       </c>
       <c r="I11" s="7">
-        <v>440449</v>
+        <v>407994</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>867</v>
       </c>
       <c r="N11" s="7">
-        <v>726331</v>
+        <v>683385</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4133,7 @@
         <v>667</v>
       </c>
       <c r="D12" s="7">
-        <v>661386</v>
+        <v>635866</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4148,7 @@
         <v>973</v>
       </c>
       <c r="I12" s="7">
-        <v>692531</v>
+        <v>640952</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4163,7 @@
         <v>1640</v>
       </c>
       <c r="N12" s="7">
-        <v>1353917</v>
+        <v>1276818</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,46 +4186,46 @@
         <v>2165</v>
       </c>
       <c r="D13" s="7">
-        <v>2087699</v>
+        <v>2203071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>2866</v>
       </c>
       <c r="I13" s="7">
-        <v>1934922</v>
+        <v>1926915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>5031</v>
       </c>
       <c r="N13" s="7">
-        <v>4022621</v>
+        <v>4129985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,46 +4237,46 @@
         <v>1120</v>
       </c>
       <c r="D14" s="7">
-        <v>1223673</v>
+        <v>1187816</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>2255</v>
       </c>
       <c r="I14" s="7">
-        <v>1714756</v>
+        <v>1566533</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>3375</v>
       </c>
       <c r="N14" s="7">
-        <v>2938429</v>
+        <v>2754349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4288,7 @@
         <v>3285</v>
       </c>
       <c r="D15" s="7">
-        <v>3311372</v>
+        <v>3390887</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4303,7 @@
         <v>5121</v>
       </c>
       <c r="I15" s="7">
-        <v>3649678</v>
+        <v>3493448</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4318,7 @@
         <v>8406</v>
       </c>
       <c r="N15" s="7">
-        <v>6961050</v>
+        <v>6884334</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
